--- a/biology/Histoire de la zoologie et de la botanique/Sextus_Otto_Lindberg/Sextus_Otto_Lindberg.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sextus_Otto_Lindberg/Sextus_Otto_Lindberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sextus Otto Lindberg (né le 29 mars 1835 à Stockholm et mort le 20 février 1889 à Helsingfors) est un botaniste suédois qui fit sa carrière dans le grand-duché de Finlande appartenant alors à l'Empire russe et qui s'est notamment consacré à la bryologie. C'est le père du botaniste Harald Lindberg (1871-1963).
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lindberg poursuit ses études de botanique à l'université d'Uppsala où il se spécialise dans l'étude des bryophytes. Il étudie ensuite la médecine à l'institut Karolinska de Stockholm, obtenant sa licence en 1863 et son doctorat l'année suivante, grâce à une thèse en pharmacologie intitulée Om de officinela barkarne.
 Lindberg enseigne la botanique à l'université Alexandre d'Helsingfors de 1865 à sa mort, commençant avec une étude sur la famille des Trichostomeae d'Europe et étudiant particulièrement les bryophytes. Il dirige l'herbier de l'université qui comprenait plus de 45 000 spécimens à cette époque.
@@ -544,10 +558,12 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Lindbergia (Poaceae) lui a été dédié en 1968 par Norman Loftus Bor.
-La revue scientifique Lindbergia[1] consacrée à la bryologie et éditée par la Société bryologique nordique (Nordic Briological Society) lui doit son nom.
+La revue scientifique Lindbergia consacrée à la bryologie et éditée par la Société bryologique nordique (Nordic Briological Society) lui doit son nom.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>S.O. Lindberg &amp; H.W. Arnell, Musci Asiæ Borealis. Beschreibung der von den Schwedischen Expeditionen nach Sibirien in den Jahren 1875 und 1876 gesammelten Mouse, 1889
 Om fruktgömmet hose Cariceaee, éd. J. Simelii, 6 pp., 1885
